--- a/biology/Zoologie/Cithaerias_andromeda/Cithaerias_andromeda.xlsx
+++ b/biology/Zoologie/Cithaerias_andromeda/Cithaerias_andromeda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Cithaerias andromeda est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Satyrinae, de la tribu des Haeterini et du genre Cithaerias.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon translucide aux nervures marron avec aux postérieures un ocelle noir, pupillé de blanc et cerclé et avec, suivant les sous-espèces, une large marque bleue ou violette au bord anal et des marques marginales.
 			Cithaerias andromeda andromeda  Muséum de Toulouse
@@ -541,12 +555,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cithaerias andromeda est présent dans le nord de l'Amérique du Sud, au Surinam, Venezuela, Pérou, Brésil et en Guyane.
+</t>
         </is>
       </c>
     </row>
@@ -576,9 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cithaerias andromeda est présent dans le nord de l'Amérique du Sud, au Surinam, Venezuela, Pérou, Brésil et en Guyane[1].
-Biotope
-Il réside dans la forêt tropicale.
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
 </t>
         </is>
       </c>
@@ -609,8 +630,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Protection
-Pas de statut de protection particulier
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
